--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1DBECD4-9937-4486-9812-59B27533BA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367FBCB5-F5D8-46E7-8C8D-7DED7F1AD711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="m_user" sheetId="2" r:id="rId2"/>
+    <sheet name="user" sheetId="2" r:id="rId2"/>
+    <sheet name="u_food" sheetId="8" r:id="rId3"/>
+    <sheet name="food" sheetId="5" r:id="rId4"/>
+    <sheet name="recipe" sheetId="6" r:id="rId5"/>
+    <sheet name="ingredient" sheetId="9" r:id="rId6"/>
+    <sheet name="calendar" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="86">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -193,10 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>好きな食材</t>
     <rPh sb="0" eb="1">
       <t>ス</t>
@@ -217,9 +218,364 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主要食材</t>
+    <t>webアプリ製造</t>
+    <rPh sb="6" eb="8">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れしぴろーくん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>齊藤 圭汰</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ管理</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>recipe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー食べ物管理</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モノカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u_food</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材ID</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見分け方</t>
+    <rPh sb="0" eb="2">
+      <t>ミワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">identify </t>
+  </si>
+  <si>
+    <t>保存方法</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存期間</t>
+    <rPh sb="0" eb="4">
+      <t>ホゾンキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旬</t>
+    <rPh sb="0" eb="1">
+      <t>シュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>storage Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retention period</t>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理名</t>
+    <rPh sb="0" eb="3">
+      <t>リョウリメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所要時間</t>
+    <rPh sb="0" eb="4">
+      <t>ショヨウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作り方</t>
+    <rPh sb="0" eb="1">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>材料管理</t>
+    <rPh sb="0" eb="4">
+      <t>ザイリョウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like_f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dislike_f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週回数</t>
+    <rPh sb="0" eb="1">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一週間の料理した回数</t>
+    <rPh sb="0" eb="3">
+      <t>イッシュウカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの基本情報</t>
+    <rPh sb="4" eb="8">
+      <t>キホンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの好きな食べ物、嫌いな食べ物</t>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要食材の管理</t>
     <rPh sb="0" eb="4">
       <t>シュヨウショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要食材管理</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ショクザイカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピの管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピの材料の管理</t>
+    <rPh sb="4" eb="6">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーの管理</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -228,7 +584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +604,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -310,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +691,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,10 +1040,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -694,7 +1064,9 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,7 +1078,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,13 +1092,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -747,55 +1125,103 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
@@ -1021,6 +1447,15 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1033,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1059,27 +1494,37 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1089,11 +1534,16 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1128,7 +1578,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1136,19 +1586,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>u_id varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1158,26 +1618,32 @@
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>password varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1195,9 +1661,7 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1215,9 +1679,7 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1511,4 +1973,3035 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D037E-6595-457C-99BA-D8E207EDE323}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table u_food (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>u_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>like_f varchar (100),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>dislike_f varchar (100)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB300-AA40-422B-BB97-C26E673B10BE}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table food (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>f_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3">
+        <v>300</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>identify  varchar (300),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>storage Method varchar (300),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>retention period varchar (100),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>season varchar (50)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5BF67C-E7BF-404E-A176-C8D25AF020C9}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table recipe (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>r_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>r_name varchar (50),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>time varchar (30),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>image varchar (50),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>recipe varchar (300)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table ingredient (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>r_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>ingredient varchar (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table calendar (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>c_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>w_count varchar (50),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>1 int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>3 int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>4 int ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C16&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>5 int ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C17&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>6 int ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f>C18&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>7 int ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:L25" si="1">C19&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>8 int ,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>9 int ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>10 int ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>11 int ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>12 int ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>13 int ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>14 int ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>15 int ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" ref="L15:L42" si="2">C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v>15 int ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>16 int ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>17 int ,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3">
+        <v>18</v>
+      </c>
+      <c r="C29" s="3">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>18 int ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>19 int ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>20 int ,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>21 int ,</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>22 int ,</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>23</v>
+      </c>
+      <c r="C34" s="3">
+        <v>23</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>23 int ,</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>24</v>
+      </c>
+      <c r="C35" s="3">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>24 int ,</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>25 int ,</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
+        <v>26</v>
+      </c>
+      <c r="C37" s="3">
+        <v>26</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>26 int ,</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
+        <v>27</v>
+      </c>
+      <c r="C38" s="3">
+        <v>27</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>27 int ,</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>28</v>
+      </c>
+      <c r="C39" s="3">
+        <v>28</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>28 int ,</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
+        <v>29</v>
+      </c>
+      <c r="C40" s="3">
+        <v>29</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>29 int ,</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>30 int ,</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <v>31</v>
+      </c>
+      <c r="C42" s="3">
+        <v>31</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">31 int </v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367FBCB5-F5D8-46E7-8C8D-7DED7F1AD711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02A6311-05BF-4157-A6F1-655AD8401E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="2" r:id="rId2"/>
-    <sheet name="u_food" sheetId="8" r:id="rId3"/>
-    <sheet name="food" sheetId="5" r:id="rId4"/>
-    <sheet name="recipe" sheetId="6" r:id="rId5"/>
-    <sheet name="ingredient" sheetId="9" r:id="rId6"/>
-    <sheet name="calendar" sheetId="7" r:id="rId7"/>
+    <sheet name="u_likefood" sheetId="8" r:id="rId3"/>
+    <sheet name="u_dislikefood" sheetId="11" r:id="rId4"/>
+    <sheet name="food" sheetId="5" r:id="rId5"/>
+    <sheet name="recipe" sheetId="6" r:id="rId6"/>
+    <sheet name="recipe (2)" sheetId="14" r:id="rId7"/>
+    <sheet name="ingredient" sheetId="9" r:id="rId8"/>
+    <sheet name="calendar" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="105">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -358,18 +360,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>storage Method</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>retention period</t>
   </si>
   <si>
     <t>season</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w_count</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -472,37 +466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カレンダーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>週回数</t>
-    <rPh sb="0" eb="1">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一週間の料理した回数</t>
-    <rPh sb="0" eb="3">
-      <t>イッシュウカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -577,6 +540,162 @@
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーの1週間の料理回数管理</t>
+    <rPh sb="7" eb="9">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>カイスウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>storage method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>材料ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="2">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調理時間</t>
+    <rPh sb="0" eb="4">
+      <t>チョウリジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外食費</t>
+    <rPh sb="0" eb="3">
+      <t>ガイショクヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自炊費</t>
+    <rPh sb="0" eb="2">
+      <t>ジスイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>費用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押した時点での費用</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u_likefood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u_dislikefood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きな食材ID</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嫌いな食材ID</t>
+    <rPh sb="0" eb="1">
+      <t>キラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調理カウント</t>
+    <rPh sb="0" eb="2">
+      <t>チョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_count</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -584,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +735,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -674,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,11 +818,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,7 +1171,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1135,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1152,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1160,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -1169,7 +1297,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1186,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1194,16 +1322,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1220,17 +1348,25 @@
         <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
@@ -1468,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1542,9 +1678,6 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-    </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
@@ -1589,10 +1722,10 @@
         <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -1619,10 +1752,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1979,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D037E-6595-457C-99BA-D8E207EDE323}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2046,7 +2179,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2086,7 +2219,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table u_food (</v>
+        <v>create table u_likefood (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2094,28 +2227,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>u_id varchar (20),</v>
       </c>
     </row>
@@ -2124,25 +2257,26 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>20</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>like_f varchar (100),</v>
+      <c r="L11" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2150,31 +2284,32 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>dislike_f varchar (100)</v>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2489,11 +2624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB300-AA40-422B-BB97-C26E673B10BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841AC786-FA84-44C1-8DC1-B3DB4626585C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2547,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2559,7 +2694,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2599,7 +2734,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table food (</v>
+        <v>create table u_dislikefood (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2607,29 +2742,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>f_id varchar (20),</v>
+      <c r="L10" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2637,25 +2772,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3">
-        <v>300</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>identify  varchar (300),</v>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2663,16 +2802,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2681,25 +2820,17 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>storage Method varchar (300),</v>
+        <v>dislike_f varchar (20)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2707,25 +2838,17 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>retention period varchar (100),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="3">
-        <v>50</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2733,7 +2856,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>season varchar (50)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3019,11 +3142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5BF67C-E7BF-404E-A176-C8D25AF020C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB300-AA40-422B-BB97-C26E673B10BE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3077,7 +3200,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3089,7 +3212,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3129,7 +3252,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table recipe (</v>
+        <v>create table food (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3137,21 +3260,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
@@ -3159,7 +3282,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>r_id varchar (20),</v>
+        <v>f_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3167,16 +3290,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3185,7 +3308,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>r_name varchar (50),</v>
+        <v>identify  varchar (600),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3193,16 +3316,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3211,7 +3334,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>time varchar (30),</v>
+        <v>storage method varchar (600),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3219,16 +3342,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3237,7 +3360,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>image varchar (50),</v>
+        <v>retention period varchar (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3245,16 +3368,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3263,7 +3386,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>recipe varchar (300)</v>
+        <v>season varchar (50)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3549,11 +3672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5BF67C-E7BF-404E-A176-C8D25AF020C9}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3607,7 +3730,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3619,7 +3742,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3659,7 +3782,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ingredient (</v>
+        <v>create table recipe (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3667,21 +3790,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
@@ -3689,7 +3812,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>r_id varchar (20),</v>
+        <v>r_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3697,16 +3820,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3715,16 +3838,25 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>ingredient varchar (20)</v>
+        <v>r_name varchar (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3732,17 +3864,25 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>time varchar (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3750,17 +3890,25 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>image varchar (50),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="3">
+        <v>600</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3768,14 +3916,16 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>recipe varchar (600)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3793,7 +3943,9 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3811,7 +3963,9 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -4054,11 +4208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
-  <dimension ref="A1:L43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F025999-10A6-493A-9903-DAF757845B47}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4112,7 +4266,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4124,7 +4278,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4164,7 +4318,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table calendar (</v>
+        <v>create table recipe (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4172,13 +4326,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -4192,9 +4346,9 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>c_id varchar (20),</v>
+      <c r="L10" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4202,800 +4356,1411 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>w_count varchar (50),</v>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
+      <c r="B12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>1 int ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">r_count int </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>3 int ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>4 int ,</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C16&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>5 int ,</v>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C17&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>6 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C18&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>7 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L25" si="1">C19&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>8 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v>9 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v>10 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v>11 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v>12 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v>13 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3">
-        <v>13</v>
-      </c>
-      <c r="C24" s="3">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v>14 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="3">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3">
-        <v>14</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v>15 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="3">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3">
-        <v>15</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" ref="L15:L42" si="2">C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
-        <v>15 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="3">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3">
-        <v>16</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="2"/>
-        <v>16 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="3">
-        <v>17</v>
-      </c>
-      <c r="C28" s="3">
-        <v>17</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="2"/>
-        <v>17 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="3">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3">
-        <v>18</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="2"/>
-        <v>18 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="3">
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table ingredient (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>r_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>ingredient varchar (20)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>19</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="str">
-        <f t="shared" si="2"/>
-        <v>19 int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="3">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table calendar (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="L31" t="str">
-        <f t="shared" si="2"/>
-        <v>20 int ,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
-        <v>21</v>
-      </c>
-      <c r="C32" s="3">
-        <v>21</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="L32" t="str">
-        <f t="shared" si="2"/>
-        <v>21 int ,</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
-        <v>22</v>
-      </c>
-      <c r="C33" s="3">
-        <v>22</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="L33" t="str">
-        <f t="shared" si="2"/>
-        <v>22 int ,</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
-        <v>23</v>
-      </c>
-      <c r="C34" s="3">
-        <v>23</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="L34" t="str">
-        <f t="shared" si="2"/>
-        <v>23 int ,</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="3">
-        <v>24</v>
-      </c>
-      <c r="C35" s="3">
-        <v>24</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="L35" t="str">
-        <f t="shared" si="2"/>
-        <v>24 int ,</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="3">
-        <v>25</v>
-      </c>
-      <c r="C36" s="3">
-        <v>25</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="L36" t="str">
-        <f t="shared" si="2"/>
-        <v>25 int ,</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="3">
-        <v>26</v>
-      </c>
-      <c r="C37" s="3">
-        <v>26</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="L37" t="str">
-        <f t="shared" si="2"/>
-        <v>26 int ,</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
-        <v>27</v>
-      </c>
-      <c r="C38" s="3">
-        <v>27</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="L38" t="str">
-        <f t="shared" si="2"/>
-        <v>27 int ,</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="3">
-        <v>28</v>
-      </c>
-      <c r="C39" s="3">
-        <v>28</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="L39" t="str">
-        <f t="shared" si="2"/>
-        <v>28 int ,</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="3">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3">
-        <v>29</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="L40" t="str">
-        <f t="shared" si="2"/>
-        <v>29 int ,</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="3">
-        <v>30</v>
-      </c>
-      <c r="C41" s="3">
-        <v>30</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="L41" t="str">
-        <f t="shared" si="2"/>
-        <v>30 int ,</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="3">
-        <v>31</v>
-      </c>
-      <c r="C42" s="3">
-        <v>31</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="L42" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">31 int </v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L43" t="s">
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>date date ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13:L29" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">r_id int </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02A6311-05BF-4157-A6F1-655AD8401E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5A641-04F1-401B-85FC-13EC4276A26E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="2" r:id="rId2"/>
     <sheet name="u_likefood" sheetId="8" r:id="rId3"/>
     <sheet name="u_dislikefood" sheetId="11" r:id="rId4"/>
-    <sheet name="food" sheetId="5" r:id="rId5"/>
-    <sheet name="recipe" sheetId="6" r:id="rId6"/>
-    <sheet name="recipe (2)" sheetId="14" r:id="rId7"/>
-    <sheet name="ingredient" sheetId="9" r:id="rId8"/>
-    <sheet name="calendar" sheetId="7" r:id="rId9"/>
+    <sheet name="refrigerator" sheetId="15" r:id="rId5"/>
+    <sheet name="r_text" sheetId="17" r:id="rId6"/>
+    <sheet name="food" sheetId="5" r:id="rId7"/>
+    <sheet name="recipe" sheetId="6" r:id="rId8"/>
+    <sheet name="recipe_count" sheetId="14" r:id="rId9"/>
+    <sheet name="ingredient" sheetId="9" r:id="rId10"/>
+    <sheet name="calendar" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="131">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -297,10 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>u_food</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>calendar</t>
   </si>
   <si>
@@ -455,10 +453,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>r_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ingredient</t>
   </si>
   <si>
@@ -477,28 +471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーの好きな食べ物、嫌いな食べ物</t>
-    <rPh sb="5" eb="6">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キラ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主要食材の管理</t>
     <rPh sb="0" eb="4">
       <t>シュヨウショクザイ</t>
@@ -547,26 +519,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カウント管理</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダーの1週間の料理回数管理</t>
-    <rPh sb="7" eb="9">
-      <t>シュウカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>カイスウカンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>storage method</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -608,13 +560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>調理時間</t>
-    <rPh sb="0" eb="4">
-      <t>チョウリジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外食費</t>
     <rPh sb="0" eb="3">
       <t>ガイショクヒ</t>
@@ -632,26 +577,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>費用</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタンを押した時点での費用</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>u_likefood</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -660,27 +585,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>好きな食材ID</t>
-    <rPh sb="0" eb="1">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショクザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>l_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嫌いな食材ID</t>
-    <rPh sb="0" eb="1">
-      <t>キラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショクザイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -696,6 +601,234 @@
   </si>
   <si>
     <t>r_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ld_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cooking_expenses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eating_out_expenses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>冷蔵庫ID</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ref_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rec_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個数</t>
+    <rPh sb="0" eb="2">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_text</t>
+  </si>
+  <si>
+    <t>r_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材1</t>
+    <rPh sb="2" eb="5">
+      <t>タショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材2</t>
+    <rPh sb="2" eb="5">
+      <t>タショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材3</t>
+    <rPh sb="2" eb="5">
+      <t>タショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipe_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワンパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時短</t>
+    <rPh sb="0" eb="2">
+      <t>ジタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wanpan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>microwave_oven</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>u_likefood</t>
+  </si>
+  <si>
+    <t>u_dislikefood</t>
+  </si>
+  <si>
+    <t>ユーザー好きな食べ物管理</t>
+    <rPh sb="4" eb="5">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>モノカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー嫌いな食べ物管理</t>
+    <rPh sb="4" eb="5">
+      <t>キラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>モノカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの好きな食べ物</t>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの嫌いな食べ物</t>
+    <rPh sb="5" eb="6">
+      <t>キラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫管理</t>
+    <rPh sb="0" eb="5">
+      <t>レイゾウコカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫の食材を管理</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾウコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫その他食材管理</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾウコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショクザイカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫のその他の食材を管理</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾウコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーごとにレシピ使用回数をカウント</t>
+  </si>
+  <si>
+    <t>ユーザーレシピ使用回数カウント</t>
+    <rPh sb="7" eb="11">
+      <t>シヨウカイスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -821,11 +954,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,16 +1301,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.90625" customWidth="1"/>
     <col min="5" max="5" width="21.36328125" customWidth="1"/>
     <col min="6" max="6" width="58.6328125" customWidth="1"/>
@@ -1263,7 +1396,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1271,16 +1404,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,16 +1421,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1305,16 +1438,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,16 +1455,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1339,16 +1472,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1356,44 +1489,68 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
@@ -1592,6 +1749,42 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <v>35</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
+        <v>36</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1600,11 +1793,1065 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table ingredient (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>rec_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L18" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>ingredient varchar (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" ref="L16:L30" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table calendar (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L12" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>u_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>date date ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>c_count int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13:L29" si="1">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">rec_id int </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1719,23 +2966,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1752,10 +2999,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1763,7 +3010,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2112,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D037E-6595-457C-99BA-D8E207EDE323}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2179,7 +3426,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2227,23 +3474,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2257,26 +3504,26 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>like_f varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2287,10 +3534,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2300,9 +3547,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2355,7 +3602,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2373,7 +3620,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2391,7 +3638,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2409,7 +3656,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2427,7 +3674,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2445,7 +3692,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2463,7 +3710,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2481,7 +3728,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2499,7 +3746,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2517,7 +3764,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2535,7 +3782,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2553,7 +3800,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2571,7 +3818,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2589,7 +3836,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2607,7 +3854,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2627,8 +3874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841AC786-FA84-44C1-8DC1-B3DB4626585C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L10:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2694,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2742,29 +3989,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L11" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ld_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2772,29 +4019,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>u_id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2805,10 +4052,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2873,7 +4120,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2891,7 +4138,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2909,7 +4156,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2927,7 +4174,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2945,7 +4192,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2963,7 +4210,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2981,7 +4228,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2999,7 +4246,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3017,7 +4264,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3035,7 +4282,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3053,7 +4300,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3071,7 +4318,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3089,7 +4336,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3107,7 +4354,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3125,7 +4372,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3142,10 +4389,1058 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ED18B-9143-4AE6-9073-2C54DBC504ED}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L10:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table refrigerator (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ref_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>u_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>f_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">f_count int </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678292F-FDC7-4817-849F-0BD6A361CE87}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table r_text (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L13" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ref_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <v>200</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>text varchar (200),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>text varchar (200),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>text varchar (200)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB300-AA40-422B-BB97-C26E673B10BE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3200,7 +5495,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3260,23 +5555,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3290,13 +5585,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3">
         <v>600</v>
@@ -3316,13 +5611,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
@@ -3342,13 +5637,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -3368,13 +5663,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3">
         <v>50</v>
@@ -3671,12 +5966,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5BF67C-E7BF-404E-A176-C8D25AF020C9}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3790,29 +6085,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>r_id int ,</v>
+        <v>rec_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3820,13 +6115,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -3837,7 +6132,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L27" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>r_name varchar (50),</v>
       </c>
     </row>
@@ -3846,13 +6141,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3863,7 +6158,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>time varchar (30),</v>
       </c>
     </row>
@@ -3872,13 +6167,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -3889,7 +6184,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>image varchar (50),</v>
       </c>
     </row>
@@ -3898,13 +6193,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
@@ -3915,104 +6210,138 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>recipe varchar (600)</v>
+        <f t="shared" si="0"/>
+        <v>recipe varchar (600),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="0"/>
+        <v>wanpan boolean ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>save_time boolean ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>microwave_oven boolean ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>cooking_expenses int ,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">eating_out_expenses int </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4029,7 +6358,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4173,7 +6502,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="1">C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4191,7 +6520,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4207,12 +6536,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F025999-10A6-493A-9903-DAF757845B47}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L10:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4278,7 +6607,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4318,7 +6647,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table recipe (</v>
+        <v>create table recipe_count (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4326,29 +6655,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L11" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>u_id varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4356,25 +6685,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>rec_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4382,13 +6711,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4453,7 +6782,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4471,7 +6800,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4489,7 +6818,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4507,7 +6836,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4525,7 +6854,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4543,7 +6872,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4561,7 +6890,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4579,7 +6908,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4597,7 +6926,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4615,7 +6944,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4633,7 +6962,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4651,7 +6980,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4669,7 +6998,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4687,7 +7016,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4705,1057 +7034,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ingredient (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>r_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>ingredient varchar (20)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>19</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table calendar (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>date date ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" ref="L13:L29" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">r_id int </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5A641-04F1-401B-85FC-13EC4276A26E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D61A62-4072-4039-805F-CF367F66551E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="716" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="130">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -519,10 +519,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>storage method</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -589,10 +585,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>調理カウント</t>
     <rPh sb="0" eb="2">
       <t>チョウリ</t>
@@ -829,6 +821,10 @@
     <rPh sb="7" eb="11">
       <t>シヨウカイスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strage method</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -932,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,9 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,8 +1296,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1404,16 +1397,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1421,16 +1414,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1438,16 +1431,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1455,16 +1448,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1506,16 +1499,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1912,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>70</v>
@@ -1943,7 +1936,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>70</v>
@@ -2109,7 +2102,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L16:L30" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L30" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2472,23 +2465,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -2500,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>77</v>
@@ -2529,7 +2522,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>70</v>
@@ -2852,7 +2845,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3360,7 +3353,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L12"/>
+      <selection activeCell="B11" sqref="B11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3426,7 +3419,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3474,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>70</v>
@@ -3875,7 +3868,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L10:L12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3941,7 +3934,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3989,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>70</v>
@@ -4030,9 +4023,7 @@
       <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>41</v>
@@ -4393,7 +4384,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L10:L13"/>
+      <selection activeCell="B12" sqref="B12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4459,7 +4450,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4507,10 +4498,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>70</v>
@@ -4548,9 +4539,7 @@
       <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>41</v>
@@ -4593,10 +4582,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>70</v>
@@ -4919,7 +4908,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4985,7 +4974,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5033,10 +5022,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>70</v>
@@ -5063,10 +5052,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
@@ -5089,10 +5078,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -5115,10 +5104,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>60</v>
@@ -5441,7 +5430,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5614,7 +5603,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -5629,7 +5618,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>storage method varchar (600),</v>
+        <v>strage method varchar (600),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6088,7 +6077,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>70</v>
@@ -6218,14 +6207,14 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>112</v>
+      <c r="B15" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6244,14 +6233,14 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>113</v>
+      <c r="B16" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6270,14 +6259,14 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>114</v>
+      <c r="B17" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -6297,10 +6286,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>70</v>
@@ -6323,10 +6312,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>70</v>
@@ -6502,7 +6491,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" ref="L15:L29" si="1">C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L28:L29" si="1">C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6540,8 +6529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F025999-10A6-493A-9903-DAF757845B47}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L10:L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6607,7 +6596,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6655,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>58</v>
@@ -6688,7 +6677,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>70</v>
@@ -6711,10 +6700,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>70</v>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D61A62-4072-4039-805F-CF367F66551E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A568A33-1FE2-4966-8794-AA61FA2C0C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="716" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="857" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="food" sheetId="5" r:id="rId7"/>
     <sheet name="recipe" sheetId="6" r:id="rId8"/>
     <sheet name="recipe_count" sheetId="14" r:id="rId9"/>
-    <sheet name="ingredient" sheetId="9" r:id="rId10"/>
+    <sheet name="r_ingredient" sheetId="9" r:id="rId10"/>
     <sheet name="calendar" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="166">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t>ingredient</t>
-  </si>
-  <si>
-    <t>ingredient</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -648,10 +645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その他食材1</t>
     <rPh sb="2" eb="5">
       <t>タショクザイ</t>
@@ -826,6 +819,244 @@
   <si>
     <t>strage method</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材4</t>
+    <rPh sb="2" eb="5">
+      <t>タショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材5</t>
+    <rPh sb="2" eb="5">
+      <t>タショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材6</t>
+    <rPh sb="2" eb="5">
+      <t>タショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材7</t>
+    <rPh sb="2" eb="5">
+      <t>タショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材8</t>
+    <rPh sb="2" eb="5">
+      <t>タショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材9</t>
+    <rPh sb="2" eb="5">
+      <t>タショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_ingredient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材個数1</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材個数2</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材個数3</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材個数4</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材個数5</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材個数6</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材個数7</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材個数8</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材個数9</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text3</t>
+  </si>
+  <si>
+    <t>text4</t>
+  </si>
+  <si>
+    <t>text5</t>
+  </si>
+  <si>
+    <t>text6</t>
+  </si>
+  <si>
+    <t>text7</t>
+  </si>
+  <si>
+    <t>text8</t>
+  </si>
+  <si>
+    <t>text9</t>
+  </si>
+  <si>
+    <t>num1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>num4</t>
+  </si>
+  <si>
+    <t>num5</t>
+  </si>
+  <si>
+    <t>num6</t>
+  </si>
+  <si>
+    <t>num7</t>
+  </si>
+  <si>
+    <t>num8</t>
+  </si>
+  <si>
+    <t>num9</t>
   </si>
 </sst>
 </file>
@@ -928,7 +1159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +1183,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,8 +1530,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1623,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1397,16 +1631,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1414,16 +1648,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1431,16 +1665,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1448,16 +1682,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1465,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -1474,7 +1708,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1491,7 +1725,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1499,16 +1733,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1519,13 +1753,13 @@
         <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1542,7 +1776,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1790,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1857,7 +2091,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1897,7 +2131,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ingredient (</v>
+        <v>create table r_ingredient (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1905,13 +2139,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -1931,18 +2165,22 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>41</v>
@@ -1956,13 +2194,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -1982,7 +2220,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2000,7 +2238,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2018,7 +2256,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2036,7 +2274,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2054,7 +2292,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2072,7 +2310,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2090,7 +2328,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2108,7 +2346,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2126,7 +2364,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2144,7 +2382,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2162,7 +2400,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2180,7 +2418,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2198,7 +2436,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2216,7 +2454,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2234,7 +2472,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2252,7 +2490,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2270,7 +2508,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2288,7 +2526,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2318,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2456,7 +2694,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L12" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>u_id varchar (20),</v>
       </c>
     </row>
@@ -2465,26 +2703,26 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>date date ,</v>
       </c>
     </row>
@@ -2493,25 +2731,29 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="I12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>c_count int ,</v>
+        <f t="shared" ref="L12:L16" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">c_count int </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2519,25 +2761,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L29" si="1">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">rec_id int </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2554,7 +2796,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2572,7 +2814,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2590,7 +2832,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2608,7 +2850,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L17:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2832,6 +3074,20 @@
       <c r="L30" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2845,7 +3101,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3353,7 +3609,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3419,7 +3675,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3467,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -3868,7 +4124,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3934,7 +4190,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3982,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -4384,7 +4640,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4450,7 +4706,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4498,13 +4754,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -4539,7 +4795,9 @@
       <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>41</v>
@@ -4562,10 +4820,12 @@
         <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>41</v>
@@ -4582,13 +4842,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4600,7 +4860,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">f_count int </v>
+        <v xml:space="preserve">f_count double </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4907,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678292F-FDC7-4817-849F-0BD6A361CE87}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4974,7 +5234,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5022,13 +5282,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -5052,16 +5312,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5070,7 +5330,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>text varchar (200),</v>
+        <v>text1 varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5078,16 +5338,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5096,7 +5356,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>text varchar (200),</v>
+        <v>text2 varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5104,16 +5364,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5122,17 +5382,25 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>text varchar (200)</v>
+        <v>text3 varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5140,17 +5408,25 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>text4 varchar (20),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5158,17 +5434,25 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>text5 varchar (20),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5176,17 +5460,25 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>text6 varchar (20),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5194,17 +5486,25 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>text7 varchar (20),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5212,17 +5512,25 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>text8 varchar (20),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5230,16 +5538,22 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>text9 varchar (20),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5248,16 +5562,22 @@
       <c r="J20" s="3"/>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>num1 double ,</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5266,16 +5586,22 @@
       <c r="J21" s="3"/>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>num2 double ,</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5284,16 +5610,22 @@
       <c r="J22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>num3 double ,</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5302,16 +5634,22 @@
       <c r="J23" s="3"/>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>num4 double ,</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5320,16 +5658,22 @@
       <c r="J24" s="3"/>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>num5 double ,</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -5338,16 +5682,22 @@
       <c r="J25" s="3"/>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>num6 double ,</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5356,16 +5706,22 @@
       <c r="J26" s="3"/>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>num7 double ,</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -5374,16 +5730,22 @@
       <c r="J27" s="3"/>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v>num8 double ,</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5392,7 +5754,7 @@
       <c r="J28" s="3"/>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">num9 double </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -5484,7 +5846,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5550,7 +5912,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -5603,7 +5965,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -5960,7 +6322,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6077,10 +6439,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -6208,13 +6570,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6234,13 +6596,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6260,13 +6622,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -6286,13 +6648,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6312,13 +6674,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6529,8 +6891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F025999-10A6-493A-9903-DAF757845B47}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6596,7 +6958,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6677,13 +7039,15 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>41</v>
@@ -6691,7 +7055,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>rec_id int ,</v>
       </c>
     </row>
@@ -6700,43 +7064,55 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">r_count int </v>
+        <f t="shared" ref="L12:L16" si="1">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">r_time date </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">r_count int </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6753,7 +7129,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6771,7 +7147,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6807,7 +7183,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L15:L29" si="2">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6825,7 +7201,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6843,7 +7219,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6861,7 +7237,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6879,7 +7255,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6897,7 +7273,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6915,7 +7291,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6933,7 +7309,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6951,7 +7327,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6969,7 +7345,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6987,7 +7363,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7005,7 +7381,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7023,7 +7399,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A568A33-1FE2-4966-8794-AA61FA2C0C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218019D3-F22E-4389-9B69-8470524126B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="857" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22530" yWindow="11130" windowWidth="29100" windowHeight="16995" tabRatio="857" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="168">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -426,14 +426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>like_f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dislike_f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>f_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1057,6 +1049,25 @@
   </si>
   <si>
     <t>num9</t>
+  </si>
+  <si>
+    <t>食材名</t>
+    <rPh sb="0" eb="3">
+      <t>ショクザイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>likefood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dislikefood</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1534,21 +1545,21 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="58.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1562,7 +1573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1584,7 +1595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1592,7 +1603,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1609,7 +1620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1623,83 +1634,83 @@
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -1708,10 +1719,10 @@
         <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1725,27 +1736,27 @@
         <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1753,16 +1764,16 @@
         <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1776,10 +1787,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1788,7 +1799,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1797,7 +1808,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1806,7 +1817,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1815,7 +1826,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1824,7 +1835,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1833,7 +1844,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1842,7 +1853,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1851,7 +1862,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1860,7 +1871,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1869,7 +1880,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1878,7 +1889,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1887,7 +1898,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1896,7 +1907,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1905,7 +1916,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1914,7 +1925,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1923,7 +1934,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1932,7 +1943,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1941,7 +1952,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1950,7 +1961,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1959,7 +1970,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1968,7 +1979,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>32</v>
       </c>
@@ -1977,7 +1988,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>33</v>
       </c>
@@ -1986,7 +1997,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>34</v>
       </c>
@@ -1995,7 +2006,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>35</v>
       </c>
@@ -2004,7 +2015,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>36</v>
       </c>
@@ -2028,25 +2039,25 @@
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2060,7 +2071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2086,19 +2097,19 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2134,18 +2145,18 @@
         <v>create table r_ingredient (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -2164,7 +2175,7 @@
         <v>rec_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2172,10 +2183,10 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -2192,7 +2203,7 @@
         <v>ingredient varchar (20)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2200,7 +2211,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -2218,7 +2229,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2236,7 +2247,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2254,7 +2265,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2272,7 +2283,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2290,7 +2301,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2308,7 +2319,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2326,7 +2337,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2344,7 +2355,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2362,7 +2373,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2398,7 +2409,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2416,7 +2427,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2434,7 +2445,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2452,7 +2463,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2470,7 +2481,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2488,7 +2499,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2524,7 +2535,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
         <v>20</v>
       </c>
@@ -2558,29 +2569,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2594,7 +2605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2608,7 +2619,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2620,7 +2631,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2632,7 +2643,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>create table calendar (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2679,7 +2690,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -2698,7 +2709,7 @@
         <v>u_id varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2706,10 +2717,10 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -2726,18 +2737,18 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -2746,28 +2757,28 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ref="L12:L16" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">c_count int </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2782,7 +2793,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2800,7 +2811,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2818,7 +2829,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2836,7 +2847,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2854,7 +2865,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2872,7 +2883,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2890,7 +2901,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2908,7 +2919,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2926,7 +2937,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2944,7 +2955,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2962,7 +2973,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2980,7 +2991,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2998,7 +3009,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3016,7 +3027,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3034,7 +3045,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3052,7 +3063,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3070,23 +3081,23 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
     </row>
   </sheetData>
@@ -3100,29 +3111,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3136,7 +3147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3150,7 +3161,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3162,7 +3173,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3174,7 +3185,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3210,7 +3221,7 @@
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3240,7 +3251,7 @@
         <v>u_id varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3268,7 +3279,7 @@
         <v>password varchar (20)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3286,7 +3297,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3304,7 +3315,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3322,7 +3333,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3340,7 +3351,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3358,7 +3369,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3376,7 +3387,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3394,7 +3405,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3412,7 +3423,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3430,7 +3441,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3448,7 +3459,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3466,7 +3477,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3484,7 +3495,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3502,7 +3513,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3520,7 +3531,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3538,7 +3549,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3556,7 +3567,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3574,7 +3585,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3592,7 +3603,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3609,28 +3620,28 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3644,7 +3655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3658,7 +3669,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3670,19 +3681,19 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3718,18 +3729,18 @@
         <v>create table u_likefood (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -3748,7 +3759,7 @@
         <v>u_id varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3772,10 +3783,10 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L12" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>like_f varchar (20)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>likefood varchar (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3783,7 +3794,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -3801,7 +3812,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3837,7 +3848,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3873,7 +3884,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3891,7 +3902,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3909,7 +3920,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3927,7 +3938,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3963,7 +3974,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3981,7 +3992,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3999,7 +4010,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4017,7 +4028,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4035,7 +4046,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4053,7 +4064,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4071,7 +4082,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4089,7 +4100,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4107,7 +4118,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -4124,28 +4135,28 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4159,7 +4170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4173,7 +4184,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4185,19 +4196,19 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4233,18 +4244,18 @@
         <v>create table u_dislikefood (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -4263,7 +4274,7 @@
         <v>ld_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4291,7 +4302,7 @@
         <v>u_id varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4299,7 +4310,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -4314,10 +4325,10 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>dislike_f varchar (20)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>dislikefood varchar (20)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4335,7 +4346,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4353,7 +4364,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4371,7 +4382,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4389,7 +4400,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4407,7 +4418,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4425,7 +4436,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4443,7 +4454,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4461,7 +4472,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4479,7 +4490,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4497,7 +4508,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4515,7 +4526,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4551,7 +4562,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4569,7 +4580,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4587,7 +4598,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4605,7 +4616,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4623,7 +4634,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -4643,25 +4654,25 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4675,7 +4686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4689,7 +4700,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4701,19 +4712,19 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4749,18 +4760,18 @@
         <v>create table refrigerator (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -4779,7 +4790,7 @@
         <v>ref_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4809,7 +4820,7 @@
         <v>u_id varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4817,10 +4828,10 @@
         <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -4837,18 +4848,18 @@
         <v>f_id int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4863,7 +4874,7 @@
         <v xml:space="preserve">f_count double </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4881,7 +4892,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4899,7 +4910,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4917,7 +4928,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4935,7 +4946,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4953,7 +4964,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4971,7 +4982,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4989,7 +5000,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5007,7 +5018,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5025,7 +5036,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5043,7 +5054,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5061,7 +5072,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5079,7 +5090,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5097,7 +5108,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5115,7 +5126,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5133,7 +5144,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5151,7 +5162,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -5167,29 +5178,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678292F-FDC7-4817-849F-0BD6A361CE87}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5203,7 +5214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5217,7 +5228,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5229,19 +5240,19 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5277,18 +5288,18 @@
         <v>create table r_text (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -5307,15 +5318,15 @@
         <v>ref_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
@@ -5333,15 +5344,15 @@
         <v>text1 varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -5359,15 +5370,15 @@
         <v>text2 varchar (20),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>60</v>
@@ -5385,15 +5396,15 @@
         <v>text3 varchar (20),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>60</v>
@@ -5411,15 +5422,15 @@
         <v>text4 varchar (20),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>60</v>
@@ -5437,15 +5448,15 @@
         <v>text5 varchar (20),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>60</v>
@@ -5463,15 +5474,15 @@
         <v>text6 varchar (20),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>60</v>
@@ -5489,15 +5500,15 @@
         <v>text7 varchar (20),</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>60</v>
@@ -5515,15 +5526,15 @@
         <v>text8 varchar (20),</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>60</v>
@@ -5541,18 +5552,18 @@
         <v>text9 varchar (20),</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5565,18 +5576,18 @@
         <v>num1 double ,</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -5589,18 +5600,18 @@
         <v>num2 double ,</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -5613,18 +5624,18 @@
         <v>num3 double ,</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -5637,18 +5648,18 @@
         <v>num4 double ,</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5661,18 +5672,18 @@
         <v>num5 double ,</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -5685,18 +5696,18 @@
         <v>num6 double ,</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -5709,18 +5720,18 @@
         <v>num7 double ,</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -5733,18 +5744,18 @@
         <v>num8 double ,</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5757,7 +5768,7 @@
         <v xml:space="preserve">num9 double </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5775,7 +5786,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -5789,31 +5800,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB300-AA40-422B-BB97-C26E673B10BE}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5827,7 +5838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5841,19 +5852,19 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -5865,7 +5876,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5901,7 +5912,7 @@
         <v>create table food (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -5909,10 +5920,10 @@
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -5927,45 +5938,47 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>f_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="3">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>identify  varchar (600),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L11:L29" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>f_name varchar (50),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -5979,25 +5992,25 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>strage method varchar (600),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>identify  varchar (600),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6005,25 +6018,25 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>retention period varchar (100),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>strage method varchar (600),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -6031,29 +6044,37 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>season varchar (50)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>retention period varchar (100)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>season varchar (50)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6071,7 +6092,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -6089,7 +6110,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -6107,7 +6128,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -6125,7 +6146,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -6143,7 +6164,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -6161,7 +6182,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -6179,7 +6200,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -6197,7 +6218,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -6215,7 +6236,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -6233,7 +6254,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -6251,7 +6272,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -6269,7 +6290,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -6287,7 +6308,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -6305,8 +6326,26 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" ref="L16:L30" si="1">C30&amp;" "&amp;D30&amp;" "&amp;IF(E30&lt;&gt;"","("&amp;E30&amp;")","")&amp;IF(C31&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6325,25 +6364,25 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6357,7 +6396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6371,7 +6410,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6383,7 +6422,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -6395,7 +6434,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6431,7 +6470,7 @@
         <v>create table recipe (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -6439,10 +6478,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -6461,7 +6500,7 @@
         <v>rec_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -6469,7 +6508,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
@@ -6487,7 +6526,7 @@
         <v>r_name varchar (50),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -6495,7 +6534,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -6513,7 +6552,7 @@
         <v>time varchar (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -6521,7 +6560,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>60</v>
@@ -6539,7 +6578,7 @@
         <v>image varchar (50),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -6565,18 +6604,18 @@
         <v>recipe varchar (600),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6591,18 +6630,18 @@
         <v>wanpan boolean ,</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6617,18 +6656,18 @@
         <v>save_time boolean ,</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -6643,18 +6682,18 @@
         <v>microwave_oven boolean ,</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6669,18 +6708,18 @@
         <v>cooking_expenses int ,</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6695,7 +6734,7 @@
         <v xml:space="preserve">eating_out_expenses int </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -6713,7 +6752,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -6731,7 +6770,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -6749,7 +6788,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -6767,7 +6806,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -6785,7 +6824,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -6803,7 +6842,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -6821,7 +6860,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -6839,7 +6878,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -6857,7 +6896,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -6875,7 +6914,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -6892,28 +6931,28 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6927,7 +6966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6941,7 +6980,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6953,19 +6992,19 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -7001,7 +7040,7 @@
         <v>create table recipe_count (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -7027,11 +7066,11 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L11" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>u_id varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -7039,10 +7078,10 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -7059,18 +7098,18 @@
         <v>rec_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -7079,28 +7118,28 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ref="L12:L16" si="1">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">r_time date </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -7115,7 +7154,7 @@
         <v xml:space="preserve">r_count int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -7133,7 +7172,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -7151,7 +7190,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -7169,7 +7208,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -7183,11 +7222,11 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L15:L29" si="2">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L17:L29" si="2">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -7205,7 +7244,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -7223,7 +7262,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -7241,7 +7280,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -7259,7 +7298,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -7277,7 +7316,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -7295,7 +7334,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -7313,7 +7352,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -7331,7 +7370,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -7349,7 +7388,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -7367,7 +7406,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -7385,7 +7424,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -7403,7 +7442,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218019D3-F22E-4389-9B69-8470524126B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7995746B-8944-44B9-8FE2-46414976BD52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22530" yWindow="11130" windowWidth="29100" windowHeight="16995" tabRatio="857" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11220" yWindow="7245" windowWidth="21600" windowHeight="11325" tabRatio="857" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="167">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -862,18 +862,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>r_ingredient</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>r_time</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1067,6 +1056,10 @@
   </si>
   <si>
     <t>dislikefood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1764,7 +1757,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>31</v>
@@ -2102,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3111,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3794,7 +3787,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -4310,7 +4303,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -5326,7 +5319,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
@@ -5352,7 +5345,7 @@
         <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -5378,7 +5371,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>60</v>
@@ -5404,7 +5397,7 @@
         <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>60</v>
@@ -5430,7 +5423,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>60</v>
@@ -5456,7 +5449,7 @@
         <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>60</v>
@@ -5482,7 +5475,7 @@
         <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>60</v>
@@ -5508,7 +5501,7 @@
         <v>132</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>60</v>
@@ -5534,7 +5527,7 @@
         <v>133</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>60</v>
@@ -5557,10 +5550,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>126</v>
@@ -5581,10 +5574,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>126</v>
@@ -5605,10 +5598,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>126</v>
@@ -5629,10 +5622,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>126</v>
@@ -5653,10 +5646,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>126</v>
@@ -5677,10 +5670,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>126</v>
@@ -5701,10 +5694,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>126</v>
@@ -5725,10 +5718,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>126</v>
@@ -5749,10 +5742,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>126</v>
@@ -5947,10 +5940,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
@@ -6340,7 +6333,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="str">
-        <f t="shared" ref="L16:L30" si="1">C30&amp;" "&amp;D30&amp;" "&amp;IF(E30&lt;&gt;"","("&amp;E30&amp;")","")&amp;IF(C31&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L30" si="1">C30&amp;" "&amp;D30&amp;" "&amp;IF(E30&lt;&gt;"","("&amp;E30&amp;")","")&amp;IF(C31&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6930,8 +6923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F025999-10A6-493A-9903-DAF757845B47}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7103,10 +7096,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>77</v>
@@ -7125,7 +7118,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ref="L12:L16" si="1">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">r_time date </v>
+        <v xml:space="preserve">r_date date </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706239AE-E247-41AD-AA58-8EF644509CFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA14AE-1D7D-48E1-A47F-2D53E6579B12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18465" yWindow="-4410" windowWidth="12930" windowHeight="13005" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -442,16 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レシピの材料の管理</t>
-    <rPh sb="4" eb="6">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレンダーの管理</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
@@ -714,9 +704,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーごとにレシピ使用回数をカウント</t>
-  </si>
-  <si>
     <t>ユーザーレシピ使用回数カウント</t>
     <rPh sb="7" eb="11">
       <t>シヨウカイスウ</t>
@@ -1099,6 +1086,20 @@
   </si>
   <si>
     <t>user_dislikefooduser_dislikefoods</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーごとのレシピ使用回数をカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ材料の管理</t>
+    <rPh sb="3" eb="5">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1204,7 +1205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,9 +1228,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1581,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1668,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -1682,16 +1680,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1699,16 +1697,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1716,16 +1714,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1733,16 +1731,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1753,7 +1751,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -1770,7 +1768,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -1784,16 +1782,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1804,13 +1802,13 @@
         <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
@@ -1821,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1858,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1908,7 +1906,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1956,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
@@ -1989,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>58</v>
@@ -2049,7 +2047,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
@@ -2118,7 +2116,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2199,7 +2197,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>58</v>
@@ -2224,13 +2222,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -2238,11 +2236,11 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2254,10 +2252,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>58</v>
@@ -2266,7 +2264,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>0</v>
       </c>
       <c r="J13" s="3"/>
@@ -2280,19 +2278,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2372,7 +2360,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2478,10 +2466,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>58</v>
@@ -2496,7 +2484,7 @@
         <v>-1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2538,7 +2526,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2574,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2586,7 +2574,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2682,7 +2670,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2724,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2760,7 +2748,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2772,7 +2760,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2868,7 +2856,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2958,7 +2946,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3006,10 +2994,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
@@ -3094,13 +3082,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3198,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3246,10 +3234,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
@@ -3276,10 +3264,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>51</v>
@@ -3302,10 +3290,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>51</v>
@@ -3328,10 +3316,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>51</v>
@@ -3354,10 +3342,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>51</v>
@@ -3380,10 +3368,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>51</v>
@@ -3406,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>51</v>
@@ -3432,10 +3420,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>51</v>
@@ -3458,10 +3446,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>51</v>
@@ -3484,10 +3472,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>51</v>
@@ -3510,13 +3498,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3534,13 +3522,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3558,13 +3546,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3582,13 +3570,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3606,13 +3594,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3630,13 +3618,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3654,13 +3642,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3678,13 +3666,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3702,13 +3690,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3756,7 +3744,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3804,7 +3792,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3882,10 +3870,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>51</v>
@@ -3963,7 +3951,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>51</v>
@@ -4116,7 +4104,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4167,7 +4155,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
@@ -4272,13 +4260,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4298,13 +4286,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4324,13 +4312,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4376,10 +4364,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>58</v>
@@ -4402,10 +4390,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>58</v>
@@ -4458,7 +4446,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4494,7 +4482,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4506,7 +4494,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4587,7 +4575,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>58</v>
@@ -4612,13 +4600,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -4626,11 +4614,11 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -4642,10 +4630,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>58</v>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA14AE-1D7D-48E1-A47F-2D53E6579B12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABA8ACD-7973-487A-8823-E6B76C0CF367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18465" yWindow="-4410" windowWidth="12930" windowHeight="13005" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1085,10 +1085,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_dislikefooduser_dislikefoods</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーごとのレシピ使用回数をカウント</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1100,6 +1096,10 @@
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_dislikefood</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1579,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1700,7 +1700,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -1791,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1808,7 +1808,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABA8ACD-7973-487A-8823-E6B76C0CF367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7FB84-69FE-4233-94C2-7EA7F2D7DFD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" tabRatio="857" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="167">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1100,6 +1100,14 @@
   </si>
   <si>
     <t>user_dislikefood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lf_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1579,8 +1587,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2294,7 +2302,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2507,8 +2515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D037E-6595-457C-99BA-D8E207EDE323}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2655,7 +2663,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>58</v>
@@ -2674,7 +2682,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">f_id int </v>
+        <v xml:space="preserve">lf_id int </v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2694,7 +2702,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2841,7 +2849,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>58</v>
@@ -2860,7 +2868,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">f_id int </v>
+        <v xml:space="preserve">df_id int </v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7FB84-69FE-4233-94C2-7EA7F2D7DFD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB8AE92-2A80-475F-9191-AABFAE0FF2A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" tabRatio="857" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3195" yWindow="5580" windowWidth="12930" windowHeight="13005" tabRatio="857" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -313,9 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>retention period</t>
-  </si>
-  <si>
     <t>season</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -711,10 +708,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>strage method</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>double</t>
   </si>
   <si>
@@ -1108,6 +1101,14 @@
   </si>
   <si>
     <t>lf_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strage_method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retention_period</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1674,13 +1675,13 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1688,16 +1689,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1705,16 +1706,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1722,16 +1723,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1739,16 +1740,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1756,16 +1757,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1776,13 +1777,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1790,16 +1791,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1807,16 +1808,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
@@ -1827,13 +1828,13 @@
         <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1849,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1866,7 +1867,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1902,7 +1903,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1914,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1962,13 +1963,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -1992,13 +1993,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -2020,13 +2021,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2058,7 +2059,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B10" sqref="B10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2124,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2175,10 +2176,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -2202,13 +2203,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -2230,13 +2231,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -2245,10 +2246,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2260,13 +2261,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2301,7 +2302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2368,7 +2369,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2419,10 +2420,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -2449,10 +2450,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2474,13 +2475,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2492,7 +2493,7 @@
         <v>-1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2515,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D037E-6595-457C-99BA-D8E207EDE323}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2534,7 +2535,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2570,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2582,7 +2583,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2633,10 +2634,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -2663,10 +2664,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -2678,7 +2679,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2720,7 +2721,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2756,7 +2757,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2768,7 +2769,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2819,10 +2820,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -2849,10 +2850,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -2864,7 +2865,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2888,7 +2889,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2954,7 +2955,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3002,13 +3003,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -3035,10 +3036,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -3065,10 +3066,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -3090,13 +3091,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3194,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3242,13 +3243,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -3272,13 +3273,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -3298,13 +3299,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -3324,13 +3325,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -3350,13 +3351,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -3376,13 +3377,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -3402,13 +3403,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3">
         <v>20</v>
@@ -3428,13 +3429,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
@@ -3454,13 +3455,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -3480,13 +3481,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3">
         <v>20</v>
@@ -3506,13 +3507,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3530,13 +3531,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3554,13 +3555,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3578,13 +3579,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3602,13 +3603,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3626,13 +3627,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3650,13 +3651,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3674,13 +3675,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3698,13 +3699,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3733,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB300-AA40-422B-BB97-C26E673B10BE}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3752,7 +3753,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3788,7 +3789,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3800,7 +3801,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3851,10 +3852,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -3878,13 +3879,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -3906,13 +3907,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3936,7 +3937,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>600</v>
@@ -3959,10 +3960,10 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
@@ -3974,7 +3975,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>strage method varchar (600)</v>
+        <v>strage_method varchar (600)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3985,10 +3986,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3">
         <v>50</v>
@@ -4000,7 +4001,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>retention period varchar (50)</v>
+        <v>retention_period varchar (50)</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -4011,10 +4012,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3">
         <v>50</v>
@@ -4046,7 +4047,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:L19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4112,7 +4113,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4160,13 +4161,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -4190,13 +4191,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -4216,13 +4217,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4242,13 +4243,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -4268,13 +4269,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4294,13 +4295,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4320,13 +4321,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4346,13 +4347,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
@@ -4372,13 +4373,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4398,13 +4399,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4454,7 +4455,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4490,7 +4491,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4502,7 +4503,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4553,10 +4554,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -4580,13 +4581,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -4608,13 +4609,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -4623,10 +4624,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -4638,13 +4639,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB8AE92-2A80-475F-9191-AABFAE0FF2A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FADFC58-A863-4B64-A7EF-B9EAD27B1835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3195" yWindow="5580" windowWidth="12930" windowHeight="13005" tabRatio="857" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="167">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1214,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,6 +1244,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1846,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1984,7 +1987,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L12" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L13" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>i_id int ,</v>
       </c>
     </row>
@@ -2039,11 +2042,37 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>ingredient varchar (20)</v>
+        <v>ingredient varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L13" t="s">
+      <c r="A13" s="10">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">r_count double </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2889,7 +2918,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3734,7 +3763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB300-AA40-422B-BB97-C26E673B10BE}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FADFC58-A863-4B64-A7EF-B9EAD27B1835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B11DD1-5077-42E4-AC5E-2C24A15404B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="0" windowWidth="21600" windowHeight="11325" tabRatio="857" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1214,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,9 +1244,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -2046,13 +2043,13 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2917,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ED18B-9143-4AE6-9073-2C54DBC504ED}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B11DD1-5077-42E4-AC5E-2C24A15404B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03375A65-9581-4C5D-9C2A-A2B3B93D1ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="0" windowWidth="21600" windowHeight="11325" tabRatio="857" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="16200" windowWidth="32400" windowHeight="16995" tabRatio="857" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="168">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1109,6 +1109,10 @@
   </si>
   <si>
     <t>retention_period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_i_count</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1848,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2050,7 +2054,7 @@
         <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>103</v>
@@ -2065,7 +2069,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">r_count double </v>
+        <v xml:space="preserve">r_i_count double </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2914,7 +2918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ED18B-9143-4AE6-9073-2C54DBC504ED}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03375A65-9581-4C5D-9C2A-A2B3B93D1ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75BB512-A346-417E-B6A5-8F52633D243F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="16200" windowWidth="32400" windowHeight="16995" tabRatio="857" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24090" yWindow="2745" windowWidth="19200" windowHeight="11550" tabRatio="857" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="168">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1850,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1988,7 +1988,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L13" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>i_id int ,</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>rec_id int ,</v>
       </c>
     </row>
@@ -2025,55 +2025,77 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>-1</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>ingredient varchar (20),</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
+        <f t="shared" ref="L13:L14" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>ingredient varchar (20),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">r_i_count double </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3765,7 +3787,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4077,7 +4099,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4414,10 +4436,10 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -4440,10 +4462,10 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75BB512-A346-417E-B6A5-8F52633D243F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35869060-31EC-449B-9ED5-D2B318E21F89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24090" yWindow="2745" windowWidth="19200" windowHeight="11550" tabRatio="857" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1113,6 +1113,32 @@
   </si>
   <si>
     <t>r_i_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>0：個、1：g、2：枚、3：少々、4：本</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウショウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1850,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1869,12 +1895,12 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1888,7 +1914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +1928,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1940,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +1952,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1962,7 +1988,7 @@
         <v>create table recipe_ingredients (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1992,7 +2018,7 @@
         <v>i_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2020,7 +2046,7 @@
         <v>rec_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2042,7 +2068,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2064,11 +2090,11 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L14" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L13" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>ingredient varchar (20),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2090,12 +2116,36 @@
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(M15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">r_i_count double </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L15" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4099,7 +4149,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35869060-31EC-449B-9ED5-D2B318E21F89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3300F51D-5AC0-4143-B905-25295EA32353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1876,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2067,6 +2067,10 @@
         <v>-1</v>
       </c>
       <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" ref="L12:L17" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>f_id int ,</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -2090,7 +2094,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" ref="L13" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L13" si="1">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>ingredient varchar (20),</v>
       </c>
     </row>
@@ -2116,8 +2120,8 @@
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(M15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">r_i_count double </v>
+        <f t="shared" ref="L14:L17" si="2">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>r_i_count double ,</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -2131,11 +2135,9 @@
         <v>169</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2145,8 +2147,60 @@
       <c r="J15" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L23" si="3">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">unit int </v>
+      </c>
       <c r="V15" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3300F51D-5AC0-4143-B905-25295EA32353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D91AC6C-06A7-457B-9316-A4E1E0102BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" ref="L12:L17" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L12" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>f_id int ,</v>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" ref="L14:L17" si="2">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L14" si="2">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>r_i_count double ,</v>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>169</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L23" si="3">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">unit int </v>
+        <v xml:space="preserve">unit double </v>
       </c>
       <c r="V15" t="s">
         <v>20</v>
@@ -3891,7 +3891,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D91AC6C-06A7-457B-9316-A4E1E0102BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68685273-AECA-4D04-8EAB-1F44D0EAF2F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12015" tabRatio="857" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1878,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3045,7 +3045,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3890,8 +3890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB300-AA40-422B-BB97-C26E673B10BE}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4071,7 +4071,9 @@
       <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4079,7 +4081,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>image varchar ,</v>
+        <v>image varchar (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68685273-AECA-4D04-8EAB-1F44D0EAF2F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818839D9-EAAB-4743-A6CA-DD40E35FE8B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12015" tabRatio="857" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3750" yWindow="2250" windowWidth="14400" windowHeight="16320" tabRatio="857" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="172">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1139,6 +1139,10 @@
     <rPh sb="19" eb="20">
       <t>ホン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1878,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2135,7 +2139,7 @@
         <v>169</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2149,7 +2153,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L23" si="3">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">unit double </v>
+        <v xml:space="preserve">unit Int </v>
       </c>
       <c r="V15" t="s">
         <v>20</v>
@@ -2215,7 +2219,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3890,7 +3894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EB300-AA40-422B-BB97-C26E673B10BE}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818839D9-EAAB-4743-A6CA-DD40E35FE8B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D204AB07-DAE5-4F0B-A450-B5D92C1E0E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3750" yWindow="2250" windowWidth="14400" windowHeight="16320" tabRatio="857" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="-11055" windowWidth="21600" windowHeight="24960" tabRatio="857" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="refrigerators" sheetId="15" r:id="rId5"/>
     <sheet name="refrigerator_texts" sheetId="17" r:id="rId6"/>
     <sheet name="foods" sheetId="5" r:id="rId7"/>
-    <sheet name="recipes" sheetId="6" r:id="rId8"/>
-    <sheet name="recipe_counts" sheetId="14" r:id="rId9"/>
-    <sheet name="recipe_ingredients" sheetId="9" r:id="rId10"/>
+    <sheet name="recipe_ingredients" sheetId="9" r:id="rId8"/>
+    <sheet name="recipes" sheetId="6" r:id="rId9"/>
+    <sheet name="recipe_counts" sheetId="14" r:id="rId10"/>
     <sheet name="calendars" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="173">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1143,6 +1143,10 @@
   </si>
   <si>
     <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1879,11 +1883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
-  <dimension ref="A1:V23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F025999-10A6-493A-9903-DAF757845B47}">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1899,12 +1903,12 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1932,31 +1936,31 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1989,40 +1993,40 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table recipe_ingredients (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+        <v>create table recipe_counts (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>i_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+        <f t="shared" ref="L10:L13" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>u_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2046,166 +2050,75 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>rec_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="I12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="L12" t="str">
-        <f t="shared" ref="L12" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>f_id int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>r_date date ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" ref="L13" si="1">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>ingredient varchar (20),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" ref="L14" si="2">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>r_i_count double ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L23" si="3">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">unit Int </v>
-      </c>
-      <c r="V15" t="s">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">r_count int </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="L16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L17" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L18" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L19" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L20" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L21" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L22" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  </v>
-      </c>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2218,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="A32:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2409,7 +2322,7 @@
         <v>67</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -3049,7 +2962,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3289,7 +3202,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:L28"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4205,11 +4118,347 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA2E2F-07E5-440A-9C55-FDE668FA8C8D}">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table recipe_ingredients (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>i_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>rec_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" ref="L12" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>f_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13" si="1">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>ingredient varchar (20),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" ref="L14" si="2">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>r_i_count double ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L23" si="3">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">unit Int </v>
+      </c>
+      <c r="V15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5BF67C-E7BF-404E-A176-C8D25AF020C9}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4592,249 +4841,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F025999-10A6-493A-9903-DAF757845B47}">
-  <dimension ref="A1:L20"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table recipe_counts (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L13" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>u_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>rec_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>r_date date ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">r_count int </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/04_DB定義書_チーム天然水.xlsx
+++ b/doc/04_DB定義書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D204AB07-DAE5-4F0B-A450-B5D92C1E0E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA870180-19C8-4502-8C4D-B1C7D5298967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="-11055" windowWidth="21600" windowHeight="24960" tabRatio="857" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="857" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="174">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1147,6 +1147,19 @@
   </si>
   <si>
     <t>YYYY-MM-DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他で代用できるため消してもいい</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2129,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AE265-9F56-4BCF-9175-7A1073636FD9}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="A32:D34"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2295,7 +2308,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v>rec_id int ,</v>
       </c>
     </row>
@@ -2325,34 +2338,8 @@
         <v>172</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L12" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">date date </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">c_count int </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2360,9 +2347,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">c_count int </v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
